--- a/human_evaluation/Eval_Summary_Mapping_SaO.xlsx
+++ b/human_evaluation/Eval_Summary_Mapping_SaO.xlsx
@@ -9,16 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="0" windowWidth="25600" windowHeight="20480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Product-Grips" sheetId="14" r:id="rId1"/>
-    <sheet name="Product-Mask" sheetId="13" r:id="rId2"/>
-    <sheet name="Product-Spokes" sheetId="12" r:id="rId3"/>
-    <sheet name="Product-Battery" sheetId="11" r:id="rId4"/>
-    <sheet name="Product-Price" sheetId="10" r:id="rId5"/>
-    <sheet name="Product-Pockets" sheetId="9" r:id="rId6"/>
-    <sheet name="Product-Edge" sheetId="8" r:id="rId7"/>
+    <sheet name="ResultsMapping-AL2" sheetId="17" r:id="rId1"/>
+    <sheet name="ResultsMapping-AL1" sheetId="16" r:id="rId2"/>
+    <sheet name="ResultsMapping" sheetId="15" r:id="rId3"/>
+    <sheet name="BikeAccessory-Grips" sheetId="14" r:id="rId4"/>
+    <sheet name="DivingSet-Mask" sheetId="13" r:id="rId5"/>
+    <sheet name="TensionMeter-Spokes" sheetId="12" r:id="rId6"/>
+    <sheet name="DotSight-Battery" sheetId="11" r:id="rId7"/>
+    <sheet name="BottleCage-Price" sheetId="10" r:id="rId8"/>
+    <sheet name="Backpack-Pockets" sheetId="9" r:id="rId9"/>
+    <sheet name="Knife-Edge" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="72">
   <si>
     <t>Model ID</t>
   </si>
@@ -78,28 +81,16 @@
   </si>
   <si>
     <t>These Sunlite MX 1 Foam Comfort Bicycle Grips Black were easy to instal, just cut off the old grips, put a little soapy water in side the new foam grips, and slide them on, wait a little while to dry, then your good to go. Nothing bad to say about these grips. These grips are comfy and easy to install. It's beyond me why it's so hard to find bicycle grips with this much cushion, these days. I had to hunt around for these grips for hours - paging through all sorts of internet listings until I was satisfied that these ones had sufficient padding for my purposes. I wanted cheap comfortable grips and these are fine. They are very lightweight and would appear to be fragile but, they are very tough grips. These foam grips are way better than the overpriced ergonomic grips. There are better foam grips out there. I was looking for grips that would help reduce/eliminate the vibration I was feeling through the handlebars from my 66cc 2 stroke engine. I ordered 5 different grips from different manufacturers, and these were the only ones I kept, while sending the rest back.</t>
-  </si>
-  <si>
-    <t>Product: Grips</t>
   </si>
   <si>
     <t xml:space="preserve">If you use a mask that lacks this feature, you have to turn your head to see what's off to either side...not a big deal, but the mask I've used for the past 30 years had this option. So I would not choose this as my primary mask, but I'd bring it along as a backup, just in case.All right, you need to know that there is no way to know if a mask is a good fit for you unless you can try it on. If, however, the mask bleeds air and falls off, then there is a breech someplace and where air can get it, water is also likely to get in.Back to the review...This mask has a built in purge valve in the nose (I don't like this). The mask is great. Also, the mask allows for clearing water out of it through the nose piece as shown in one of the videos.The snorkel does the nice work of not filling with water when going down, but if some water gets in it may be so little that it will not be a problem to clear it while keeping the snorkel in place.Together the parts add up to a system without flaw. The mask has "Panoramic lens technology for expanded visibility". The mask allows the user to purge the water that may get into the mask.The fins are easy to size, and it find them to be comfortable in and out of the water. The mask feels great, but again, I've not taken underwater. The mask fits my face wonderfully, and stays on (for testing) without a strap, which is something the guy at the snorkel shop told me to do this summer. The mask also has side windows, which give a bigger field of view, but I'm not the biggest fan of that because it lets stray light in and can lessen visibility in some situations.The fins are great, work well, and sure do make catching up to fish a lot easier. I will stick to the mask I already have.The snorkel mouth piece was comfortable and fit easily even though I have a narrow mouth. The mask, however, was too small to be comfortable and I had trouble getting and maintaining a seal. The mask is just too small for me, and compared to how well the flippers fit, it seems like the wrong size was put in the bag. I just wish the mask was larger -the material is soft with a double flange seal and a purge valve, and the lens gives a good range of view. I'm just very surprised at how small the mask is. The mask is good but I have used much better. The mask is comfortable and never leaked, but did not have the clearest visibility in the water. This mask has good visibility but was a bit cloudy in the water. I gave it four stars only because the mask can seem a little cloudy in the water compared to some of my other masks. It is very similar to (or is) a Lux mask, which is one of U.S. The mask doesn't fog up, and is wide open, allowing me to see in all directions, including up and down. The mask it self  has a panoramic view so you can see of the side without turning your head.One of my favorite features is the integrated whistle near the mouth piece. Which is a mask strap cover and snorkel cover in one. They make it much more comfortable and prevent the mask strap from pulling hair.This would be a great gift for someone who enjoys water sports but its hard to shop for. The mask fit his face with no leakage and he said the mouthpiece was comfortable in his mouth. The mask really had a nice snug fit however it seemed to fog up easily so remember to pack a de fogger. Normally you clear by pressing the mask to your forehead and exhaling through your nose.
 </t>
   </si>
   <si>
-    <t>Product: Mask</t>
-  </si>
-  <si>
-    <t>Product: Spokes</t>
-  </si>
-  <si>
     <t xml:space="preserve">One of the spokes nearby always had a low reading. I have bladed spokes and it still works fine When I got the Park Meter, I checked all the spokes. Once you know the spokes are in the ballpark, you can start to true from there. You can mark the spokes by spinning the wheel and putting tape at the same "centered" spot, or you can do what I did, and use the spoke wrench as a bottom of the meter guide. I've used the &amp;#34;pluck the spokes to tune them&amp;#34; approach for years with good success. Recently though, I had to replace several spokes and could just not get the wheel true and also get a perfectly round wheel. I re-tensioned all 32 spokes, checked for alignment, made a few adjustments and ended up with a perfectly true wheel. Adjusted the spokes to the averaged amount so now the spokes are at equal tension for each side of the wheels. I know that I feel a LOT better knowing that my spokes are not too tight or too loose -and that the relative tension is even all the way around the wheel.There seems to be two schools of thought reading the other reviews. And then tested my spokes, wrote down Max and Minimum. After I checked all the spokes, I used the spoke tension chart as it gave a suggested range to tighten spokes. I adjusted all the spokes (and checked the runout at the same time). It still sounds ironic to say but spokes break from inadequate tension causing fatigue failure. The spokes should all have the same tension when plucked.
 </t>
   </si>
   <si>
-    <t>Product: Battery</t>
-  </si>
-  <si>
     <t>so i have to remove the battery to avoid it from draining it completely. then i went out and discovered the battery was dead. Inserted the battery, the dot looked more like a constellation in the night sky than a dot, little dots all over the place. Popped in a battery and within a few clicks had it target centered. I have to adjust the battery compartment because if it's too tight or lose the don't wont light up. I checked the battery and even replaced it and it didn't help. Oh, they do give you an extra battery too. With new battery this scope works fantastically. I am still on the original battery. The extra battery supplied is a nice extra.I originally purchased this product for use on an inexpensive Crossman 2240 pellet pistol, which comes from the factory with relatively crude iron sights. battery replacement can be accomplished without removal of the sight - another nice feature. I have also left the battery in it for quite a while... Like a year and still powers up with no problem. The extra battery is a nice addition since it's easy to forget to turn the scope off after using it.</t>
   </si>
   <si>
@@ -110,9 +101,6 @@
     <t>There are two side pockets accessible easily that could hold rifle or pistol mags, survival knife, camera tripod, or antennae/radio comms. The other pockets are generously sized as well. The two side pockets offer even more storage and a low profile when compared to clipping on water bottle holders, etc. I think I am still discovering pockets on this thing. there's three pockets in the main cargo area, the top pocket has a webbed separator, and the outer pocket has organizer spaces for pens, external HDDs, zippered web pocket... pockets everywhere.I liked the first one so much, I purchased a second from Amazon as a backup, and the new model does have some differences, but they are all improvements. There are many pockets, and sometimes I forget what is in them. Back pockets has flat survival pack with sundry items. They both have outer pockets to hold MREs, Water bottles etc. However it has mesh pockets for holding small items. The outside pockets hold bulky items better, and the rear top compartment is big and useful. I may end up cutting some of the larger pockets out to save some room and weight. The pockets are great, and I am happy to use as my BOB or if your inclined a SHTF bag.</t>
   </si>
   <si>
-    <t>Product: Edge</t>
-  </si>
-  <si>
     <t xml:space="preserve">Getting it to hold an edge is an exercise in frustration. I had to sharpen it when it arrived, but it's keeping its edge well. Cutting edge is medium-low quality, but if you have sharpening skills, you can produce a serviceable utility edge with relatively little effort. It have a fairly sharp edge and the fire starter works fine also. Once given a decent edge, it's perfectly serviceable for minor tasks.Recommended. It holds an edge fine and is constructed very well. Holds an edge pretty well (invest in an inexpensive pocket sharpener), but when it dulls it's easy to get back to razor sharp. The edge is not that sharp from the start and probably won't ever be, BUT for a knockaround knife that you don't mind beating up on, it is just fine. It can be sharpened to a decent edge, but I'm not sure how well it will hold it. It came with a fairly dull edge. It comes dull but it took a very sharp edge quickly. It has an edge but I couldn't cut yogurt with the dang thing. So even if you paid $6 for it you are going to have to send it out to get a real edge on it which will probably cost you $3 for shipping and $5 for sharpening. I would recommend once you get it to refine the edge a bit so its as sharp as possible, mine came pre sharp but I put a better edge on it. They needed to be sharpened when I got them as they weren't very sharp but they seem to hold an edge very well. The upper edge of the sheath pocket that holds the fire starter was unraveling so I weld-sealed it, and that fixed that. So far it holds an excellent edge (makes it hard to sharpen that first time) even when chopping frosen wood. Crappy edge, slack cord for handle, didn't say survivor on it (I don't like not getting what I see in the pic) but for this price, I'm forced to give it 4 stars. Did take an edge, seems to be durable and up for abuse, and the firesteel works. Keeps an edge alright.
 </t>
   </si>
@@ -217,13 +205,64 @@
   </si>
   <si>
     <t>items. they both have outer pockets to hold mres, water bottles etc. however it has mesh pockets for holding small items. the outside pockets hold bulky items better, and the rear top compartment is big and useful. i may end up cutting some of the larger pockets out to save some room and weight. the pockets are great, and i am happy to use as my bob or if your inclined a shtf</t>
+  </si>
+  <si>
+    <t>Product-Pair</t>
+  </si>
+  <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>Mapping</t>
+  </si>
+  <si>
+    <t>Sunlite MX 1 Foam Comfort Bicycle Grips, Black: Grips</t>
+  </si>
+  <si>
+    <t>U.S. Divers Men's Lux LX Mask with Purge, Pivot Fins and Phoenix LX Snorkel Combo Set: Mask</t>
+  </si>
+  <si>
+    <t>Park Tool TM-1 Spoke Tension Meter: Spokes</t>
+  </si>
+  <si>
+    <t>Leapers Golden Image 38mm Red/Green Dot Sight, Integral Weaver Mount: Battery</t>
+  </si>
+  <si>
+    <t>Ibera Bicycle Lightweight Aluminum Water Bottle Cage: Price</t>
+  </si>
+  <si>
+    <t>5.11 Rush 72 Back Pack: Pockets</t>
+  </si>
+  <si>
+    <t>Survivor HK-106320 Outdoor Fixed Blade Knife 7 Overall WITH FIRE STARTER: Edge</t>
+  </si>
+  <si>
+    <t>BikeAccessory-Grips</t>
+  </si>
+  <si>
+    <t>DivingSet-Mask</t>
+  </si>
+  <si>
+    <t>TensionMeter-Spokes</t>
+  </si>
+  <si>
+    <t>DotSight-Battery</t>
+  </si>
+  <si>
+    <t>BottleCage-Price</t>
+  </si>
+  <si>
+    <t>Backpack-Pockets</t>
+  </si>
+  <si>
+    <t>Knife-Edge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -275,6 +314,37 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -284,7 +354,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -464,11 +534,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -495,18 +595,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -537,6 +625,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -545,6 +639,12 @@
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -555,8 +655,37 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -832,10 +961,1339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="33"/>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="35">
+        <v>4</v>
+      </c>
+      <c r="E4" s="35">
+        <v>2</v>
+      </c>
+      <c r="F4" s="35">
+        <v>3</v>
+      </c>
+      <c r="G4" s="35">
+        <v>5</v>
+      </c>
+      <c r="H4" s="35">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f>D4</f>
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <f>E4</f>
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <f>H4</f>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f>F4</f>
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <f>G4</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="33"/>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="35">
+        <v>5</v>
+      </c>
+      <c r="E5" s="35">
+        <v>1</v>
+      </c>
+      <c r="F5" s="35">
+        <v>2</v>
+      </c>
+      <c r="G5" s="35">
+        <v>4</v>
+      </c>
+      <c r="H5" s="35">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:K7" si="0">D5</f>
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L7" si="1">H5</f>
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:N7" si="2">F5</f>
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="33"/>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="35">
+        <v>3</v>
+      </c>
+      <c r="E6" s="35">
+        <v>2</v>
+      </c>
+      <c r="F6" s="35">
+        <v>1</v>
+      </c>
+      <c r="G6" s="35">
+        <v>5</v>
+      </c>
+      <c r="H6" s="35">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="33"/>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="35">
+        <v>4</v>
+      </c>
+      <c r="E7" s="35">
+        <v>1</v>
+      </c>
+      <c r="F7" s="35">
+        <v>2</v>
+      </c>
+      <c r="G7" s="35">
+        <v>5</v>
+      </c>
+      <c r="H7" s="35">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B10" s="33"/>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="35">
+        <v>5</v>
+      </c>
+      <c r="E10" s="35">
+        <v>1</v>
+      </c>
+      <c r="F10" s="35">
+        <v>2</v>
+      </c>
+      <c r="G10" s="35">
+        <v>3</v>
+      </c>
+      <c r="H10" s="35">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <f>G10</f>
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <f>D10</f>
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <f>F10</f>
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <f>E10</f>
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f>H10</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B11" s="33"/>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="35">
+        <v>3</v>
+      </c>
+      <c r="E11" s="35">
+        <v>2</v>
+      </c>
+      <c r="F11" s="35">
+        <v>1</v>
+      </c>
+      <c r="G11" s="35">
+        <v>4</v>
+      </c>
+      <c r="H11" s="35">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11:J13" si="3">G11</f>
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11:K13" si="4">D11</f>
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11:L13" si="5">F11</f>
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11:M13" si="6">E11</f>
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11:N13" si="7">H11</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B12" s="33"/>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="35">
+        <v>4</v>
+      </c>
+      <c r="E12" s="35">
+        <v>1</v>
+      </c>
+      <c r="F12" s="35">
+        <v>3</v>
+      </c>
+      <c r="G12" s="35">
+        <v>3</v>
+      </c>
+      <c r="H12" s="35">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="33"/>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="35">
+        <v>4</v>
+      </c>
+      <c r="E13" s="35">
+        <v>1</v>
+      </c>
+      <c r="F13" s="35">
+        <v>2</v>
+      </c>
+      <c r="G13" s="35">
+        <v>3</v>
+      </c>
+      <c r="H13" s="35">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="39"/>
+      <c r="C16" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="35">
+        <v>2</v>
+      </c>
+      <c r="E16" s="35">
+        <v>3</v>
+      </c>
+      <c r="F16" s="35">
+        <v>4</v>
+      </c>
+      <c r="G16" s="35">
+        <v>1</v>
+      </c>
+      <c r="H16" s="35">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <f>E16</f>
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <f>H16</f>
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <f>D16</f>
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <f>G16</f>
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <f>F16</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17" s="39"/>
+      <c r="C17" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="35">
+        <v>1</v>
+      </c>
+      <c r="E17" s="35">
+        <v>5</v>
+      </c>
+      <c r="F17" s="35">
+        <v>3</v>
+      </c>
+      <c r="G17" s="35">
+        <v>2</v>
+      </c>
+      <c r="H17" s="35">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:J18" si="8">E17</f>
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17:K18" si="9">H17</f>
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:L18" si="10">D17</f>
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ref="M17:M18" si="11">G17</f>
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ref="N17:N18" si="12">F17</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" s="39"/>
+      <c r="C18" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="35">
+        <v>2</v>
+      </c>
+      <c r="E18" s="35">
+        <v>5</v>
+      </c>
+      <c r="F18" s="35">
+        <v>3</v>
+      </c>
+      <c r="G18" s="35">
+        <v>1</v>
+      </c>
+      <c r="H18" s="35">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="39"/>
+      <c r="C19" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="35">
+        <v>1</v>
+      </c>
+      <c r="E19" s="35">
+        <v>3</v>
+      </c>
+      <c r="F19" s="35">
+        <v>4</v>
+      </c>
+      <c r="G19" s="35">
+        <v>2</v>
+      </c>
+      <c r="H19" s="35">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <f>E19</f>
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <f>H19</f>
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <f>D19</f>
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f>G19</f>
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <f>F19</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="39"/>
+      <c r="C22" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="35">
+        <v>2</v>
+      </c>
+      <c r="E22" s="35">
+        <v>1</v>
+      </c>
+      <c r="F22" s="35">
+        <v>4</v>
+      </c>
+      <c r="G22" s="35">
+        <v>3</v>
+      </c>
+      <c r="H22" s="35">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <f>E22</f>
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <f>G22</f>
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <f>D22</f>
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <f>H22</f>
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <f>F22</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="39"/>
+      <c r="C23" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="35">
+        <v>2</v>
+      </c>
+      <c r="E23" s="35">
+        <v>1</v>
+      </c>
+      <c r="F23" s="35">
+        <v>4</v>
+      </c>
+      <c r="G23" s="35">
+        <v>1</v>
+      </c>
+      <c r="H23" s="35">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23:J25" si="13">E23</f>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:K25" si="14">G23</f>
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ref="L23:L25" si="15">D23</f>
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ref="M23:M25" si="16">H23</f>
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ref="N23:N25" si="17">F23</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="39"/>
+      <c r="C24" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="35">
+        <v>2</v>
+      </c>
+      <c r="E24" s="35">
+        <v>1</v>
+      </c>
+      <c r="F24" s="35">
+        <v>5</v>
+      </c>
+      <c r="G24" s="35">
+        <v>3</v>
+      </c>
+      <c r="H24" s="35">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="39"/>
+      <c r="C25" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="35">
+        <v>2</v>
+      </c>
+      <c r="E25" s="35">
+        <v>1</v>
+      </c>
+      <c r="F25" s="35">
+        <v>5</v>
+      </c>
+      <c r="G25" s="35">
+        <v>3</v>
+      </c>
+      <c r="H25" s="35">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B28" s="39"/>
+      <c r="C28" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="J28">
+        <f>G28</f>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f>F28</f>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f>H28</f>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f>D28</f>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f>E28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B29" s="39"/>
+      <c r="C29" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="J29">
+        <f t="shared" ref="J29:J31" si="18">G29</f>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ref="K29:K31" si="19">F29</f>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ref="L29:L31" si="20">H29</f>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ref="M29:N31" si="21">D29</f>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B30" s="39"/>
+      <c r="C30" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="J30">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="39"/>
+      <c r="C31" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="J31">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B33" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="35"/>
+      <c r="D33" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B34" s="39"/>
+      <c r="C34" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="J34">
+        <f>F34</f>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f>G34</f>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f>E34</f>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f>H34</f>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f>D34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B35" s="39"/>
+      <c r="C35" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="J35">
+        <f t="shared" ref="J35:K37" si="22">F35</f>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ref="L35:L37" si="23">E35</f>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ref="M35:M37" si="24">H35</f>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ref="N35:N37" si="25">D35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B36" s="39"/>
+      <c r="C36" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="J36">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="39"/>
+      <c r="C37" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="J37">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B39" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="35"/>
+      <c r="D39" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K39" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M39" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N39" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B40" s="39"/>
+      <c r="C40" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="J40">
+        <f>F40</f>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f>G40</f>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f>H40</f>
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <f>E40</f>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f>D40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B41" s="39"/>
+      <c r="C41" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="J41">
+        <f t="shared" ref="J41:L43" si="26">F41</f>
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <f t="shared" ref="M41:M43" si="27">E41</f>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ref="N41:N43" si="28">D41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B42" s="39"/>
+      <c r="C42" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="J42">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="39"/>
+      <c r="C43" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="J43">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B27:B31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -851,121 +2309,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="16"/>
+      <c r="C2" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="239" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="17"/>
+      <c r="C3" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="2"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" ht="257" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" ht="241" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="23" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="19"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="24"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
@@ -973,11 +2431,11 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
@@ -985,11 +2443,11 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
@@ -997,11 +2455,11 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1010,47 +2468,47 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="15"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1065,10 +2523,2651 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D40" sqref="D40:H43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="33"/>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4</v>
+      </c>
+      <c r="H4" s="21">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f>D4</f>
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <f>E4</f>
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <f>H4</f>
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <f>F4</f>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f>G4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="33"/>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4</v>
+      </c>
+      <c r="H5" s="21">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:K7" si="0">D5</f>
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L7" si="1">H5</f>
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:N7" si="2">F5</f>
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="33"/>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="21">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="33"/>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>4</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B10" s="33"/>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3</v>
+      </c>
+      <c r="H10" s="21">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <f>G10</f>
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <f>D10</f>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f>F10</f>
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <f>E10</f>
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <f>H10</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B11" s="33"/>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3</v>
+      </c>
+      <c r="H11" s="21">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11:J13" si="3">G11</f>
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11:K13" si="4">D11</f>
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11:L13" si="5">F11</f>
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11:M13" si="6">E11</f>
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11:N13" si="7">H11</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B12" s="33"/>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4</v>
+      </c>
+      <c r="H12" s="21">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="33"/>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5">
+        <v>4</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="39"/>
+      <c r="C16" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="21">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <f>E16</f>
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <f>H16</f>
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <f>D16</f>
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <f>G16</f>
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <f>F16</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17" s="39"/>
+      <c r="C17" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="21">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:J18" si="8">E17</f>
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17:K18" si="9">H17</f>
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:L18" si="10">D17</f>
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ref="M17:M18" si="11">G17</f>
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ref="N17:N18" si="12">F17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" s="39"/>
+      <c r="C18" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="21">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="39"/>
+      <c r="C19" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5">
+        <v>5</v>
+      </c>
+      <c r="E19" s="5">
+        <v>4</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2</v>
+      </c>
+      <c r="H19" s="6">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <f>E19</f>
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <f>H19</f>
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <f>D19</f>
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <f>G19</f>
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <f>F19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="39"/>
+      <c r="C22" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3</v>
+      </c>
+      <c r="H22" s="21">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <f>E22</f>
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <f>G22</f>
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <f>D22</f>
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <f>H22</f>
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <f>F22</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="39"/>
+      <c r="C23" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="21">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23:J25" si="13">E23</f>
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:K25" si="14">G23</f>
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ref="L23:L25" si="15">D23</f>
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ref="M23:M25" si="16">H23</f>
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ref="N23:N25" si="17">F23</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="39"/>
+      <c r="C24" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3</v>
+      </c>
+      <c r="H24" s="21">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="39"/>
+      <c r="C25" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>5</v>
+      </c>
+      <c r="F25" s="5">
+        <v>4</v>
+      </c>
+      <c r="G25" s="5">
+        <v>3</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B28" s="39"/>
+      <c r="C28" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>4</v>
+      </c>
+      <c r="H28" s="21">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <f>G28</f>
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <f>F28</f>
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <f>H28</f>
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <f>D28</f>
+        <v>5</v>
+      </c>
+      <c r="N28">
+        <f>E28</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B29" s="39"/>
+      <c r="C29" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="3">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2</v>
+      </c>
+      <c r="H29" s="21">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ref="J29:J31" si="18">G29</f>
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ref="K29:K31" si="19">F29</f>
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ref="L29:L31" si="20">H29</f>
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ref="M29:N31" si="21">D29</f>
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B30" s="39"/>
+      <c r="C30" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="3">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>5</v>
+      </c>
+      <c r="H30" s="21">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="39"/>
+      <c r="C31" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="5">
+        <v>5</v>
+      </c>
+      <c r="E31" s="5">
+        <v>3</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <v>4</v>
+      </c>
+      <c r="H31" s="6">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B33" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="35"/>
+      <c r="D33" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B34" s="39"/>
+      <c r="C34" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3">
+        <v>5</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3">
+        <v>4</v>
+      </c>
+      <c r="H34" s="21">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <f>F34</f>
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <f>G34</f>
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <f>E34</f>
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <f>H34</f>
+        <v>3</v>
+      </c>
+      <c r="N34">
+        <f>D34</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B35" s="39"/>
+      <c r="C35" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="3">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3</v>
+      </c>
+      <c r="G35" s="3">
+        <v>4</v>
+      </c>
+      <c r="H35" s="21">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ref="J35:K37" si="22">F35</f>
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ref="L35:L37" si="23">E35</f>
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ref="M35:M37" si="24">H35</f>
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ref="N35:N37" si="25">D35</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B36" s="39"/>
+      <c r="C36" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3">
+        <v>5</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>4</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="21">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="39"/>
+      <c r="C37" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="5">
+        <v>5</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
+        <v>4</v>
+      </c>
+      <c r="G37" s="5">
+        <v>2</v>
+      </c>
+      <c r="H37" s="6">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B39" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="35"/>
+      <c r="D39" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K39" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M39" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N39" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B40" s="39"/>
+      <c r="C40" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2</v>
+      </c>
+      <c r="F40" s="3">
+        <v>4</v>
+      </c>
+      <c r="G40" s="3">
+        <v>3</v>
+      </c>
+      <c r="H40" s="21">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <f>F40</f>
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <f>G40</f>
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <f>H40</f>
+        <v>5</v>
+      </c>
+      <c r="M40">
+        <f>E40</f>
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <f>D40</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B41" s="39"/>
+      <c r="C41" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3</v>
+      </c>
+      <c r="F41" s="3">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
+        <v>4</v>
+      </c>
+      <c r="H41" s="21">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ref="J41:L43" si="26">F41</f>
+        <v>5</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <f t="shared" ref="M41:M43" si="27">E41</f>
+        <v>3</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ref="N41:N43" si="28">D41</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B42" s="39"/>
+      <c r="C42" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2</v>
+      </c>
+      <c r="F42" s="3">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>3</v>
+      </c>
+      <c r="H42" s="21">
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="39"/>
+      <c r="C43" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2</v>
+      </c>
+      <c r="F43" s="5">
+        <v>4</v>
+      </c>
+      <c r="G43" s="5">
+        <v>3</v>
+      </c>
+      <c r="H43" s="6">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B27:B31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="33"/>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>E4</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>H4</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>F4</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>G4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="33"/>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J7" si="0">D5</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K7" si="1">E5</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L7" si="2">H5</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M7" si="3">F5</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N7" si="4">G5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="33"/>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="33"/>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B10" s="33"/>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <f>G10</f>
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <f>D10</f>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f>F10</f>
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <f>E10</f>
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <f>H10</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B11" s="33"/>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11:J13" si="5">G11</f>
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11:K13" si="6">D11</f>
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11:L13" si="7">F11</f>
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11:M13" si="8">E11</f>
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11:N13" si="9">H11</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B12" s="33"/>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="33"/>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="39"/>
+      <c r="C16" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="J16">
+        <f>E16</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>H16</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>D16</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>G16</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>F16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17" s="39"/>
+      <c r="C17" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="J17">
+        <f t="shared" ref="J17:J18" si="10">E17</f>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17:K18" si="11">H17</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:L18" si="12">D17</f>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ref="M17:M18" si="13">G17</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ref="N17:N18" si="14">F17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" s="39"/>
+      <c r="C18" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="J18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="39"/>
+      <c r="C19" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="J19">
+        <f>E19</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f>H19</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>D19</f>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f>G19</f>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>F19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="39"/>
+      <c r="C22" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="J22">
+        <f>E22</f>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f>G22</f>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f>D22</f>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f>H22</f>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f>F22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="39"/>
+      <c r="C23" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="J23">
+        <f t="shared" ref="J23:J25" si="15">E23</f>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:K25" si="16">G23</f>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ref="L23:L25" si="17">D23</f>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ref="M23:M25" si="18">H23</f>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ref="N23:N25" si="19">F23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="39"/>
+      <c r="C24" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="J24">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="39"/>
+      <c r="C25" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="J25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B28" s="39"/>
+      <c r="C28" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="J28">
+        <f>G28</f>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f>F28</f>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f>H28</f>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f>D28</f>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f>E28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B29" s="39"/>
+      <c r="C29" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="J29">
+        <f t="shared" ref="J29:J31" si="20">G29</f>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ref="K29:K31" si="21">F29</f>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ref="L29:L31" si="22">H29</f>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ref="M29:M31" si="23">D29</f>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" ref="N29:N31" si="24">E29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B30" s="39"/>
+      <c r="C30" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="J30">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="39"/>
+      <c r="C31" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="J31">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B33" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="35"/>
+      <c r="D33" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B34" s="39"/>
+      <c r="C34" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="J34">
+        <f>F34</f>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f>G34</f>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f>E34</f>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f>H34</f>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f>D34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B35" s="39"/>
+      <c r="C35" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="J35">
+        <f t="shared" ref="J35:J37" si="25">F35</f>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ref="K35:K37" si="26">G35</f>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ref="L35:L37" si="27">E35</f>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ref="M35:M37" si="28">H35</f>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ref="N35:N37" si="29">D35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B36" s="39"/>
+      <c r="C36" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="J36">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="39"/>
+      <c r="C37" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="J37">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B39" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="35"/>
+      <c r="D39" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K39" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M39" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N39" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B40" s="39"/>
+      <c r="C40" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="J40">
+        <f>F40</f>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f>G40</f>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f>H40</f>
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <f>E40</f>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f>D40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B41" s="39"/>
+      <c r="C41" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="J41">
+        <f t="shared" ref="J41:J43" si="30">F41</f>
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ref="K41:K43" si="31">G41</f>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f t="shared" ref="L41:L43" si="32">H41</f>
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <f t="shared" ref="M41:M43" si="33">E41</f>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ref="N41:N43" si="34">D41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B42" s="39"/>
+      <c r="C42" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="J42">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="39"/>
+      <c r="C43" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="J43">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B15:B19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="M10:M13" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1084,121 +5183,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="16"/>
+      <c r="C2" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="239" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="17"/>
+      <c r="C3" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="2"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" ht="209" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" ht="257" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="E6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="F6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="19"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="24"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1206,11 +5305,11 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
@@ -1218,11 +5317,11 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1230,11 +5329,11 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1243,47 +5342,47 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="15"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1296,12 +5395,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1317,121 +5416,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="16"/>
+      <c r="C2" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="239" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="17"/>
+      <c r="C3" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="2"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" ht="289" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" ht="209" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="21"/>
+        <v>34</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="23" t="s">
+      <c r="F6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="19"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="24"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1439,11 +5538,11 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
@@ -1451,11 +5550,11 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1463,11 +5562,11 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1476,47 +5575,47 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="15"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1529,12 +5628,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1550,121 +5649,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="16"/>
+      <c r="C2" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="239" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="17"/>
+      <c r="C3" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="2"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="289" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="23" t="s">
+      <c r="D6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="19"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="24"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1672,11 +5771,11 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
@@ -1684,11 +5783,11 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1696,11 +5795,11 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1709,47 +5808,47 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="15"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1762,12 +5861,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1783,121 +5882,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="16"/>
+      <c r="C2" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="239" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="17"/>
+      <c r="C3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="2"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" ht="241" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" ht="289" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="21"/>
+        <v>22</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="19"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="24"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1905,11 +6004,11 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
@@ -1917,11 +6016,11 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1929,11 +6028,11 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1942,47 +6041,47 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="15"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1995,12 +6094,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2016,121 +6115,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="16"/>
+      <c r="C2" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="239" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="17"/>
+      <c r="C3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="2"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" ht="273" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" ht="241" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="E6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="19"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="24"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
@@ -2138,11 +6237,11 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
@@ -2150,11 +6249,11 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
@@ -2162,11 +6261,11 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -2175,47 +6274,47 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="15"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2228,12 +6327,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2249,121 +6348,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="16"/>
+      <c r="C2" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="239" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="17"/>
+      <c r="C3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="2"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" ht="241" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" ht="273" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="19"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="24"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
@@ -2371,11 +6470,11 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
@@ -2383,11 +6482,11 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
@@ -2395,11 +6494,11 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -2408,47 +6507,47 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="15"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
